--- a/Bachelor-Project-Planner.xlsx
+++ b/Bachelor-Project-Planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C77EA04D-4D5D-4156-B6A6-8D7110D1F094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073B310-EDC5-4CD8-862C-F31DE4E03B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>RFID code schrijven</t>
   </si>
   <si>
-    <t>Reset implementeren via bluetooth</t>
-  </si>
-  <si>
     <t>Oplossing bekabeling van RFID spel</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Extra tijd</t>
+  </si>
+  <si>
+    <t>Reset implementeren via bluetooth (geschrapt)</t>
   </si>
 </sst>
 </file>
@@ -919,6 +919,21 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -928,9 +943,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,18 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1404,7 +1404,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1430,11 +1430,11 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
@@ -1442,73 +1442,73 @@
         <v>1</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34"/>
       <c r="AE2" s="13"/>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
       <c r="AO2" s="14"/>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="31" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -1535,12 +1535,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1725,13 +1725,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="17">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F5" s="17">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -1888,10 +1888,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" s="17">
         <v>7</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="17">
         <v>4</v>
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17">
         <v>15</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="17">
         <v>22</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="17">
         <v>30</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="17">
         <v>22</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17">
         <v>27</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="18">
         <v>31</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="17">
         <v>34</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="17" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="17">
         <v>40</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="18" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="17">
         <v>46</v>
@@ -3796,18 +3796,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="AF2:AN2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="AF2:AN2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
